--- a/rooms_only_avg.xlsx
+++ b/rooms_only_avg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="36">
   <si>
     <t>AMOUNT</t>
   </si>
@@ -46,34 +46,34 @@
     <t>atrium</t>
   </si>
   <si>
-    <t>jingletown</t>
+    <t>meditation</t>
+  </si>
+  <si>
+    <t>uptown</t>
+  </si>
+  <si>
+    <t>east-oak</t>
   </si>
   <si>
     <t>west-oak</t>
   </si>
   <si>
-    <t>uptown</t>
-  </si>
-  <si>
-    <t>meditation</t>
+    <t>courtyard</t>
   </si>
   <si>
     <t>meridian</t>
   </si>
   <si>
-    <t>courtyard</t>
+    <t>downtown</t>
+  </si>
+  <si>
+    <t>jingletown</t>
   </si>
   <si>
     <t>broadway</t>
   </si>
   <si>
-    <t>downtown</t>
-  </si>
-  <si>
     <t>omi</t>
-  </si>
-  <si>
-    <t>east-oak</t>
   </si>
   <si>
     <t>Full</t>
@@ -112,10 +112,10 @@
     <t>partnership</t>
   </si>
   <si>
-    <t>waived</t>
+    <t>reoccuring</t>
   </si>
   <si>
-    <t>reoccuring</t>
+    <t>waived</t>
   </si>
   <si>
     <t>returning-client</t>
@@ -479,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,168 +552,168 @@
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>140</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>840</v>
+        <v>980</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>833</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>225</v>
+        <v>140</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>1575</v>
+        <v>840</v>
       </c>
       <c r="H5">
-        <v>0.175</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>225</v>
       </c>
       <c r="F6">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>1237.5</v>
+        <v>1575</v>
       </c>
       <c r="H6">
-        <v>0.1</v>
+        <v>0.175</v>
       </c>
       <c r="I6">
-        <v>1113.75</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="F7">
         <v>5.5</v>
       </c>
       <c r="G7">
-        <v>825</v>
+        <v>1237.5</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I7">
-        <v>825</v>
+        <v>1113.75</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="F8">
-        <v>16</v>
+        <v>5.5</v>
       </c>
       <c r="G8">
-        <v>2880</v>
+        <v>825</v>
       </c>
       <c r="H8">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>864</v>
+        <v>825</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E9">
-        <v>115.909090909091</v>
+        <v>180</v>
       </c>
       <c r="F9">
-        <v>3.13636363636364</v>
+        <v>16</v>
       </c>
       <c r="G9">
-        <v>360.681818181818</v>
+        <v>2880</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I9">
-        <v>351.204545454545</v>
+        <v>864</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>55</v>
+        <v>115.909090909091</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>3.13636363636364</v>
       </c>
       <c r="G10">
-        <v>220</v>
+        <v>360.681818181818</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>220</v>
+        <v>351.204545454545</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -721,70 +721,70 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11">
-        <v>195</v>
+        <v>55</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>585</v>
+        <v>220</v>
       </c>
       <c r="H11">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>497.25</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>112</v>
+        <v>195</v>
       </c>
       <c r="F12">
-        <v>2.35</v>
+        <v>3</v>
       </c>
       <c r="G12">
-        <v>267.5</v>
+        <v>585</v>
       </c>
       <c r="H12">
-        <v>0.065</v>
+        <v>0.15</v>
       </c>
       <c r="I12">
-        <v>250.45</v>
+        <v>497.25</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>140</v>
+        <v>114.545454545455</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2.31818181818182</v>
       </c>
       <c r="G13">
-        <v>140</v>
+        <v>268.636363636364</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0.104545454545455</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>240.409090909091</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -792,22 +792,22 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>125</v>
       </c>
       <c r="F14">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="G14">
-        <v>362.5</v>
+        <v>180</v>
       </c>
       <c r="H14">
-        <v>0.15</v>
+        <v>0.6</v>
       </c>
       <c r="I14">
-        <v>308.125</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,70 +815,70 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="F15">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="G15">
-        <v>630</v>
+        <v>362.5</v>
       </c>
       <c r="H15">
-        <v>0.55</v>
+        <v>0.15</v>
       </c>
       <c r="I15">
-        <v>283.5</v>
+        <v>308.125</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E16">
-        <v>195.833333333333</v>
+        <v>140</v>
       </c>
       <c r="F16">
-        <v>2.83333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="G16">
-        <v>550</v>
+        <v>630</v>
       </c>
       <c r="H16">
-        <v>0.095</v>
+        <v>0.55</v>
       </c>
       <c r="I16">
-        <v>491.875</v>
+        <v>283.5</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>210</v>
+        <v>195.833333333333</v>
       </c>
       <c r="F17">
-        <v>3.25</v>
+        <v>2.83333333333333</v>
       </c>
       <c r="G17">
-        <v>686.25</v>
+        <v>550</v>
       </c>
       <c r="H17">
-        <v>0.875</v>
+        <v>0.095</v>
       </c>
       <c r="I17">
-        <v>126.5625</v>
+        <v>491.875</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -886,22 +886,22 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F18">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G18">
-        <v>727.5</v>
+        <v>774</v>
       </c>
       <c r="H18">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="I18">
-        <v>654.75</v>
+        <v>213.75</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -909,47 +909,45 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F19">
-        <v>2.25</v>
+        <v>3.7</v>
       </c>
       <c r="G19">
-        <v>461.25</v>
+        <v>796.5</v>
       </c>
       <c r="H19">
-        <v>0.6875</v>
+        <v>0.21</v>
       </c>
       <c r="I19">
-        <v>170.625</v>
+        <v>623.475</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E20">
-        <v>158.181818181818</v>
+        <v>210</v>
       </c>
       <c r="F20">
-        <v>3.59090909090909</v>
+        <v>2.25</v>
       </c>
       <c r="G20">
-        <v>575.454545454545</v>
+        <v>461.25</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.6875</v>
       </c>
       <c r="I20">
-        <v>575.454545454545</v>
+        <v>170.625</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -957,99 +955,93 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E21">
-        <v>864</v>
+        <v>225</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G21">
-        <v>864</v>
+        <v>675</v>
       </c>
       <c r="H21">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I21">
-        <v>432</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D22" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>162.857142857143</v>
+        <v>156.428571428571</v>
       </c>
       <c r="F22">
-        <v>3.14285714285714</v>
+        <v>3.25</v>
       </c>
       <c r="G22">
-        <v>514.285714285714</v>
+        <v>516.428571428571</v>
       </c>
       <c r="H22">
-        <v>0.187142857142857</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="I22">
-        <v>402.428571428571</v>
+        <v>505.714285714286</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E23">
-        <v>190.833333333333</v>
+        <v>864</v>
       </c>
       <c r="F23">
-        <v>10.2</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1632.5</v>
+        <v>864</v>
       </c>
       <c r="H23">
-        <v>0.0333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="I23">
-        <v>1526.58333333333</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>200</v>
+        <v>161.25</v>
       </c>
       <c r="F24">
-        <v>8.16666666666667</v>
+        <v>3.0625</v>
       </c>
       <c r="G24">
-        <v>1640</v>
+        <v>496.875</v>
       </c>
       <c r="H24">
-        <v>0.15</v>
+        <v>0.17625</v>
       </c>
       <c r="I24">
-        <v>1394</v>
+        <v>394.3125</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1057,95 +1049,99 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E25">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="F25">
-        <v>7.75</v>
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>1627.5</v>
+        <v>540</v>
       </c>
       <c r="H25">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="I25">
-        <v>671.475</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C26" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E26">
-        <v>315</v>
+        <v>190.833333333333</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>10.2</v>
       </c>
       <c r="G26">
-        <v>2205</v>
+        <v>1632.5</v>
       </c>
       <c r="H26">
-        <v>0.225</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="I26">
-        <v>1669.5</v>
+        <v>1526.58333333333</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D27" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E27">
-        <v>315</v>
+        <v>200</v>
       </c>
       <c r="F27">
-        <v>5.5</v>
+        <v>8.16666666666667</v>
       </c>
       <c r="G27">
-        <v>1732.5</v>
+        <v>1640</v>
       </c>
       <c r="H27">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I27">
-        <v>1559.25</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E28">
-        <v>241.666666666667</v>
+        <v>210</v>
       </c>
       <c r="F28">
-        <v>5.66666666666667</v>
+        <v>7.5</v>
       </c>
       <c r="G28">
-        <v>1365</v>
+        <v>1575</v>
       </c>
       <c r="H28">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>1257.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1153,95 +1149,95 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E29">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="F29">
-        <v>12</v>
+        <v>7.75</v>
       </c>
       <c r="G29">
-        <v>3060</v>
+        <v>1627.5</v>
       </c>
       <c r="H29">
-        <v>0.4625</v>
+        <v>0.54</v>
       </c>
       <c r="I29">
-        <v>1402.5</v>
+        <v>671.475</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D30" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E30">
-        <v>255</v>
+        <v>315</v>
       </c>
       <c r="F30">
         <v>7</v>
       </c>
       <c r="G30">
-        <v>1785</v>
+        <v>2205</v>
       </c>
       <c r="H30">
-        <v>0.86</v>
+        <v>0.225</v>
       </c>
       <c r="I30">
-        <v>249.9</v>
+        <v>1669.5</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E31">
-        <v>188.529411764706</v>
+        <v>315</v>
       </c>
       <c r="F31">
-        <v>2.91176470588235</v>
+        <v>5.5</v>
       </c>
       <c r="G31">
-        <v>569.705882352941</v>
+        <v>1732.5</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I31">
-        <v>569.705882352941</v>
+        <v>1559.25</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D32" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E32">
-        <v>160</v>
+        <v>241.666666666667</v>
       </c>
       <c r="F32">
-        <v>3.75</v>
+        <v>5.66666666666667</v>
       </c>
       <c r="G32">
-        <v>595</v>
+        <v>1365</v>
       </c>
       <c r="H32">
-        <v>0.46</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="I32">
-        <v>305.2</v>
+        <v>1257.5</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1249,22 +1245,22 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E33">
         <v>255</v>
       </c>
       <c r="F33">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G33">
-        <v>1275</v>
+        <v>3060</v>
       </c>
       <c r="H33">
-        <v>0.25</v>
+        <v>0.4625</v>
       </c>
       <c r="I33">
-        <v>956.25</v>
+        <v>1402.5</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1272,47 +1268,49 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E34">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G34">
-        <v>1180</v>
+        <v>1785</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>249.9</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C35" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E35">
-        <v>179.85</v>
+        <v>188.529411764706</v>
       </c>
       <c r="F35">
-        <v>2.6</v>
+        <v>2.91176470588235</v>
       </c>
       <c r="G35">
-        <v>462.3</v>
+        <v>569.705882352941</v>
       </c>
       <c r="H35">
-        <v>0.029</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>451.86</v>
+        <v>569.705882352941</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1323,19 +1321,19 @@
         <v>29</v>
       </c>
       <c r="E36">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="G36">
-        <v>360</v>
+        <v>595</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="I36">
-        <v>360</v>
+        <v>305.2</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1343,22 +1341,22 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E37">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="F37">
-        <v>3.33333333333333</v>
+        <v>5</v>
       </c>
       <c r="G37">
-        <v>647.5</v>
+        <v>1275</v>
       </c>
       <c r="H37">
-        <v>0.473333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="I37">
-        <v>339.825</v>
+        <v>956.25</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1366,45 +1364,47 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E38">
-        <v>190</v>
+        <v>295</v>
       </c>
       <c r="F38">
-        <v>2.41666666666667</v>
+        <v>4</v>
       </c>
       <c r="G38">
-        <v>475</v>
+        <v>1180</v>
       </c>
       <c r="H38">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>403.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D39" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E39">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F39">
-        <v>2.8</v>
+        <v>2.74074074074074</v>
       </c>
       <c r="G39">
-        <v>556.5</v>
+        <v>507.166666666667</v>
       </c>
       <c r="H39">
-        <v>0.515</v>
+        <v>0.0307407407407407</v>
       </c>
       <c r="I39">
-        <v>192.225</v>
+        <v>491.933333333333</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1412,47 +1412,45 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E40">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F40">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="G40">
-        <v>690</v>
+        <v>450</v>
       </c>
       <c r="H40">
         <v>0.465</v>
       </c>
       <c r="I40">
-        <v>438.9</v>
+        <v>198.9</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E41">
-        <v>305.138888888889</v>
+        <v>197.142857142857</v>
       </c>
       <c r="F41">
-        <v>3.02777777777778</v>
+        <v>3.42857142857143</v>
       </c>
       <c r="G41">
-        <v>934.097222222222</v>
+        <v>675</v>
       </c>
       <c r="H41">
-        <v>0.0236111111111111</v>
+        <v>0.405714285714286</v>
       </c>
       <c r="I41">
-        <v>906.243055555556</v>
+        <v>411.278571428571</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1460,22 +1458,22 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E42">
-        <v>295</v>
+        <v>190</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>2.41666666666667</v>
       </c>
       <c r="G42">
-        <v>590</v>
+        <v>475</v>
       </c>
       <c r="H42">
-        <v>0.32</v>
+        <v>0.15</v>
       </c>
       <c r="I42">
-        <v>401.2</v>
+        <v>403.75</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1483,45 +1481,47 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E43">
-        <v>227.5</v>
+        <v>195</v>
       </c>
       <c r="F43">
-        <v>3.16666666666667</v>
+        <v>2.8</v>
       </c>
       <c r="G43">
-        <v>752.916666666667</v>
+        <v>556.5</v>
       </c>
       <c r="H43">
-        <v>0.208333333333333</v>
+        <v>0.515</v>
       </c>
       <c r="I43">
-        <v>548.979166666667</v>
+        <v>192.225</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D44" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E44">
-        <v>299</v>
+        <v>305.595238095238</v>
       </c>
       <c r="F44">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="G44">
-        <v>1021</v>
+        <v>926.25</v>
       </c>
       <c r="H44">
-        <v>0.06</v>
+        <v>0.0202380952380952</v>
       </c>
       <c r="I44">
-        <v>957.25</v>
+        <v>902.375</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1529,22 +1529,22 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E45">
-        <v>302.692307692308</v>
+        <v>295</v>
       </c>
       <c r="F45">
-        <v>2.96153846153846</v>
+        <v>2</v>
       </c>
       <c r="G45">
-        <v>899.038461538462</v>
+        <v>590</v>
       </c>
       <c r="H45">
-        <v>0.606923076923077</v>
+        <v>0.32</v>
       </c>
       <c r="I45">
-        <v>351.988461538462</v>
+        <v>401.2</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1552,22 +1552,22 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E46">
-        <v>315</v>
+        <v>249.375</v>
       </c>
       <c r="F46">
-        <v>3</v>
+        <v>3.3125</v>
       </c>
       <c r="G46">
-        <v>945</v>
+        <v>860</v>
       </c>
       <c r="H46">
-        <v>0.6</v>
+        <v>77.075</v>
       </c>
       <c r="I46">
-        <v>378</v>
+        <v>561.265625</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1575,22 +1575,22 @@
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E47">
-        <v>295</v>
+        <v>303.571428571429</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>3.57142857142857</v>
       </c>
       <c r="G47">
-        <v>590</v>
+        <v>1089.28571428571</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>0.0428571428571429</v>
       </c>
       <c r="I47">
-        <v>590</v>
+        <v>1043.75</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1598,47 +1598,45 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E48">
-        <v>295</v>
+        <v>302.692307692308</v>
       </c>
       <c r="F48">
-        <v>2.875</v>
+        <v>2.96153846153846</v>
       </c>
       <c r="G48">
-        <v>848.125</v>
+        <v>899.038461538462</v>
       </c>
       <c r="H48">
-        <v>0.6</v>
+        <v>0.606923076923077</v>
       </c>
       <c r="I48">
-        <v>317.125</v>
+        <v>351.988461538462</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E49">
-        <v>232.714285714286</v>
+        <v>315</v>
       </c>
       <c r="F49">
-        <v>3.08571428571429</v>
+        <v>3</v>
       </c>
       <c r="G49">
-        <v>726.428571428571</v>
+        <v>945</v>
       </c>
       <c r="H49">
-        <v>0.05</v>
+        <v>0.6</v>
       </c>
       <c r="I49">
-        <v>690.392857142857</v>
+        <v>378</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1646,22 +1644,22 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E50">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G50">
-        <v>765</v>
+        <v>737.5</v>
       </c>
       <c r="H50">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>344.25</v>
+        <v>737.5</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1669,45 +1667,47 @@
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E51">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="F51">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="G51">
-        <v>1147.5</v>
+        <v>848.125</v>
       </c>
       <c r="H51">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="I51">
-        <v>860.625</v>
+        <v>317.125</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D52" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E52">
-        <v>246.111111111111</v>
+        <v>231.717948717949</v>
       </c>
       <c r="F52">
-        <v>3.05555555555556</v>
+        <v>2.98717948717949</v>
       </c>
       <c r="G52">
-        <v>752.5</v>
+        <v>701.320512820513</v>
       </c>
       <c r="H52">
-        <v>0.101111111111111</v>
+        <v>0.0448717948717949</v>
       </c>
       <c r="I52">
-        <v>674.166666666667</v>
+        <v>668.980769230769</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -1715,51 +1715,45 @@
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E53">
         <v>240</v>
       </c>
       <c r="F53">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="G53">
-        <v>847.5</v>
+        <v>776.25</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>467.4375</v>
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E54">
-        <v>60</v>
+        <v>255</v>
       </c>
       <c r="F54">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G54">
-        <v>240</v>
+        <v>1147.5</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I54">
-        <v>240</v>
+        <v>860.625</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -1770,48 +1764,42 @@
         <v>27</v>
       </c>
       <c r="E55">
-        <v>80</v>
+        <v>244</v>
       </c>
       <c r="F55">
         <v>3</v>
       </c>
       <c r="G55">
+        <v>733.5</v>
+      </c>
+      <c r="H55">
+        <v>0.101</v>
+      </c>
+      <c r="I55">
+        <v>657.375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56">
         <v>240</v>
       </c>
-      <c r="H55">
-        <v>0.1</v>
-      </c>
-      <c r="I55">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E56">
-        <v>25</v>
-      </c>
       <c r="F56">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="G56">
-        <v>150</v>
+        <v>847.5</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -1822,38 +1810,48 @@
         <v>32</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>255</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>765</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>306</v>
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C58" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E58">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="F58">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G58">
-        <v>665</v>
+        <v>240</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -1861,41 +1859,51 @@
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>240</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60">
         <v>25</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E60">
-        <v>75</v>
-      </c>
       <c r="F60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G60">
-        <v>525</v>
+        <v>150</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -1903,74 +1911,58 @@
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E61">
-        <v>45</v>
-      </c>
-      <c r="F61">
-        <v>7</v>
-      </c>
-      <c r="G61">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>283.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
-      <c r="B62" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E62">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="F62">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G62">
-        <v>100</v>
+        <v>665</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
-      <c r="C63" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E63">
-        <v>55</v>
-      </c>
-      <c r="F63">
-        <v>5</v>
-      </c>
-      <c r="G63">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -1983,78 +1975,76 @@
         <v>22</v>
       </c>
       <c r="E64">
+        <v>75</v>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64">
+        <v>525</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65">
         <v>45</v>
       </c>
-      <c r="F64">
-        <v>3.28571428571429</v>
-      </c>
-      <c r="G64">
-        <v>147.857142857143</v>
-      </c>
-      <c r="H64">
-        <v>0.142857142857143</v>
-      </c>
-      <c r="I64">
-        <v>122.142857142857</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E65">
-        <v>55</v>
-      </c>
       <c r="F65">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="G65">
-        <v>302.5</v>
+        <v>315</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I65">
-        <v>302.5</v>
+        <v>283.5</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
+      <c r="B66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D66" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E66">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F66">
-        <v>5.625</v>
+        <v>4</v>
       </c>
       <c r="G66">
-        <v>279.375</v>
+        <v>100</v>
       </c>
       <c r="H66">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>261.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>22</v>
@@ -2063,71 +2053,75 @@
         <v>55</v>
       </c>
       <c r="F67">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G67">
-        <v>440</v>
+        <v>275</v>
       </c>
       <c r="H67">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>330</v>
+        <v>275</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
+      <c r="C68" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D68" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E68">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="F68">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G68">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="H68">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>157.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1"/>
-      <c r="B69" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E69">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>3.28571428571429</v>
       </c>
       <c r="G69">
-        <v>35</v>
+        <v>147.857142857143</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="I69">
-        <v>35</v>
+        <v>122.142857142857</v>
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
+      <c r="A70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C70" s="1" t="s">
         <v>24</v>
       </c>
@@ -2135,48 +2129,42 @@
         <v>22</v>
       </c>
       <c r="E70">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F70">
-        <v>4.25</v>
+        <v>5.5</v>
       </c>
       <c r="G70">
-        <v>148.75</v>
+        <v>302.5</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>148.75</v>
+        <v>302.5</v>
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E71">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="F71">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="G71">
-        <v>690</v>
+        <v>295</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="I71">
-        <v>690</v>
+        <v>262.825</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2184,141 +2172,151 @@
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="F72">
+        <v>5.5</v>
+      </c>
+      <c r="G72">
+        <v>357.5</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>268.125</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E73">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="F73">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G73">
-        <v>630</v>
+        <v>440</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>330</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
-      <c r="C74" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E74">
-        <v>189</v>
+        <v>25</v>
       </c>
       <c r="F74">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G74">
-        <v>1512</v>
+        <v>175</v>
       </c>
       <c r="H74">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I74">
-        <v>1285.2</v>
+        <v>157.5</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
+      <c r="B75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D75" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E75">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="F75">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="G75">
-        <v>990</v>
+        <v>85</v>
       </c>
       <c r="H75">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="I75">
-        <v>891</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1"/>
-      <c r="B76" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E76">
-        <v>185</v>
+        <v>35</v>
       </c>
       <c r="F76">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="G76">
-        <v>925</v>
+        <v>148.75</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
       <c r="I76">
-        <v>925</v>
+        <v>148.75</v>
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
+      <c r="A77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C77" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E77">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F77">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G77">
-        <v>315</v>
+        <v>690</v>
       </c>
       <c r="H77">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>267.75</v>
+        <v>690</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2326,16 +2324,10 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E78">
-        <v>105</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -2348,48 +2340,50 @@
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E79">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G79">
-        <v>300</v>
+        <v>630</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
+      <c r="C80" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D80" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E80">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="F80">
-        <v>4.25</v>
+        <v>8</v>
       </c>
       <c r="G80">
-        <v>705</v>
+        <v>1512</v>
       </c>
       <c r="H80">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="I80">
-        <v>664.5</v>
+        <v>1285.2</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2397,128 +2391,122 @@
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E81">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F81">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="G81">
-        <v>300</v>
+        <v>990</v>
       </c>
       <c r="H81">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I81">
-        <v>225</v>
+        <v>891</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
+      <c r="B82" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C82" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E82">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="F82">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="G82">
-        <v>287.5</v>
+        <v>925</v>
       </c>
       <c r="H82">
         <v>0</v>
       </c>
       <c r="I82">
-        <v>287.5</v>
+        <v>925</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
+      <c r="C83" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D83" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E83">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="F83">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="G83">
-        <v>346.5</v>
+        <v>315</v>
       </c>
       <c r="H83">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="I83">
-        <v>277.05</v>
+        <v>267.75</v>
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C84" s="1" t="s">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E84">
+        <v>105</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>105</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E84">
-        <v>15</v>
-      </c>
-      <c r="F84">
-        <v>5</v>
-      </c>
-      <c r="G84">
-        <v>75</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D85" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E85">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="F85">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G85">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
       <c r="I85">
-        <v>1200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2526,74 +2514,70 @@
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E86">
-        <v>45.2222222222222</v>
+        <v>170</v>
       </c>
       <c r="F86">
-        <v>14.4444444444444</v>
+        <v>4.33333333333333</v>
       </c>
       <c r="G86">
-        <v>653.888888888889</v>
+        <v>740</v>
       </c>
       <c r="H86">
-        <v>0.2</v>
+        <v>0.116666666666667</v>
       </c>
       <c r="I86">
-        <v>523.111111111111</v>
+        <v>645.5</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="1"/>
-      <c r="B87" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
       <c r="D87" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E87">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="F87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G87">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E88">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="F88">
-        <v>2.66666666666667</v>
+        <v>2.75</v>
       </c>
       <c r="G88">
-        <v>120</v>
+        <v>316.25</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>120</v>
+        <v>316.25</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -2601,110 +2585,124 @@
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89">
+        <v>125</v>
+      </c>
+      <c r="F89">
+        <v>2.66666666666667</v>
+      </c>
+      <c r="G89">
+        <v>336.666666666667</v>
+      </c>
+      <c r="H89">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="I89">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E90">
+        <v>15</v>
+      </c>
+      <c r="F90">
+        <v>5</v>
+      </c>
+      <c r="G90">
+        <v>75</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E91">
+        <v>75</v>
+      </c>
+      <c r="F91">
+        <v>16</v>
+      </c>
+      <c r="G91">
+        <v>1200</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E89">
-        <v>45</v>
-      </c>
-      <c r="F89">
-        <v>4</v>
-      </c>
-      <c r="G89">
-        <v>180</v>
-      </c>
-      <c r="H89">
+      <c r="E92">
+        <v>45.2222222222222</v>
+      </c>
+      <c r="F92">
+        <v>14.4444444444444</v>
+      </c>
+      <c r="G92">
+        <v>653.888888888889</v>
+      </c>
+      <c r="H92">
         <v>0.2</v>
       </c>
-      <c r="I89">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E90">
-        <v>45</v>
-      </c>
-      <c r="F90">
-        <v>3</v>
-      </c>
-      <c r="G90">
-        <v>135</v>
-      </c>
-      <c r="H90">
-        <v>1</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E91">
-        <v>110</v>
-      </c>
-      <c r="F91">
-        <v>3.125</v>
-      </c>
-      <c r="G91">
-        <v>356.875</v>
-      </c>
-      <c r="H91">
-        <v>0.025</v>
-      </c>
-      <c r="I91">
-        <v>347.5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E92">
-        <v>85</v>
-      </c>
-      <c r="F92">
-        <v>6.75</v>
-      </c>
-      <c r="G92">
-        <v>573.75</v>
-      </c>
-      <c r="H92">
-        <v>0.05</v>
-      </c>
       <c r="I92">
-        <v>541.875</v>
+        <v>523.111111111111</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
+      <c r="B93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D93" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="F93">
+        <v>4</v>
+      </c>
+      <c r="G93">
+        <v>180</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -2716,56 +2714,66 @@
     <row r="94" spans="1:9">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
+      <c r="C94" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D94" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="F94">
+        <v>2.66666666666667</v>
+      </c>
+      <c r="G94">
+        <v>120</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
-      <c r="C95" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="C95" s="1"/>
       <c r="D95" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E95">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F95">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="G95">
-        <v>390</v>
+        <v>180</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I95">
-        <v>390</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
-      <c r="C96" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="C96" s="1"/>
       <c r="D96" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="F96">
+        <v>3</v>
+      </c>
+      <c r="G96">
+        <v>135</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -2776,77 +2784,73 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="1"/>
-      <c r="B97" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="B97" s="1"/>
       <c r="C97" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E97">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="F97">
-        <v>4.25</v>
+        <v>3.125</v>
       </c>
       <c r="G97">
-        <v>321.25</v>
+        <v>356.875</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="I97">
-        <v>321.25</v>
+        <v>347.5</v>
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
+      <c r="A98" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D98" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E98">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="F98">
-        <v>3</v>
+        <v>6.75</v>
       </c>
       <c r="G98">
-        <v>345</v>
+        <v>573.75</v>
       </c>
       <c r="H98">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="I98">
-        <v>293.25</v>
+        <v>541.875</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
-      <c r="C99" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E99">
-        <v>61.5789473684211</v>
-      </c>
-      <c r="F99">
-        <v>2.60526315789474</v>
-      </c>
-      <c r="G99">
-        <v>161.842105263158</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>0.00789473684210526</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>160.894736842105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -2854,16 +2858,10 @@
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E100">
-        <v>90</v>
-      </c>
-      <c r="F100">
-        <v>4</v>
-      </c>
-      <c r="G100">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -2875,72 +2873,72 @@
     <row r="101" spans="1:9">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
+      <c r="C101" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D101" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E101">
         <v>60</v>
       </c>
       <c r="F101">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="G101">
-        <v>180</v>
+        <v>390</v>
       </c>
       <c r="H101">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>153</v>
+        <v>390</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
+      <c r="C102" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D102" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E102">
-        <v>60</v>
-      </c>
-      <c r="F102">
-        <v>2</v>
-      </c>
-      <c r="G102">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
+      <c r="B103" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C103" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E103">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="F103">
-        <v>2.33333333333333</v>
+        <v>4.1</v>
       </c>
       <c r="G103">
-        <v>308.333333333333</v>
+        <v>316.5</v>
       </c>
       <c r="H103">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>281.916666666667</v>
+        <v>316.5</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -2948,70 +2946,70 @@
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E104">
-        <v>96.6666666666667</v>
+        <v>115</v>
       </c>
       <c r="F104">
         <v>3</v>
       </c>
       <c r="G104">
-        <v>253.333333333333</v>
+        <v>345</v>
       </c>
       <c r="H104">
-        <v>0.233333333333333</v>
+        <v>0.15</v>
       </c>
       <c r="I104">
-        <v>199.666666666667</v>
+        <v>293.25</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
+      <c r="C105" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D105" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E105">
-        <v>116.666666666667</v>
+        <v>61.5789473684211</v>
       </c>
       <c r="F105">
-        <v>2.66666666666667</v>
+        <v>2.60526315789474</v>
       </c>
       <c r="G105">
-        <v>312.5</v>
+        <v>161.842105263158</v>
       </c>
       <c r="H105">
-        <v>0.833333333333333</v>
+        <v>0.00789473684210526</v>
       </c>
       <c r="I105">
-        <v>70</v>
+        <v>160.894736842105</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
-      <c r="C106" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="C106" s="1"/>
       <c r="D106" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E106">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F106">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="G106">
-        <v>219</v>
+        <v>360</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>184.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3019,22 +3017,22 @@
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E107">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F107">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G107">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I107">
-        <v>360</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3042,78 +3040,70 @@
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E108">
-        <v>92.5</v>
+        <v>60</v>
       </c>
       <c r="F108">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G108">
-        <v>362.5</v>
+        <v>120</v>
       </c>
       <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E109">
+        <v>125</v>
+      </c>
+      <c r="F109">
+        <v>2.33333333333333</v>
+      </c>
+      <c r="G109">
+        <v>308.333333333333</v>
+      </c>
+      <c r="H109">
         <v>0.1</v>
       </c>
-      <c r="I108">
-        <v>326.25</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E109">
-        <v>65</v>
-      </c>
-      <c r="F109">
-        <v>7.25</v>
-      </c>
-      <c r="G109">
-        <v>467.5</v>
-      </c>
-      <c r="H109">
-        <v>0.15</v>
-      </c>
       <c r="I109">
-        <v>398</v>
+        <v>281.916666666667</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="1"/>
-      <c r="B110" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
       <c r="D110" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E110">
-        <v>57.5</v>
+        <v>105.833333333333</v>
       </c>
       <c r="F110">
         <v>3.25</v>
       </c>
       <c r="G110">
-        <v>195</v>
+        <v>327.916666666667</v>
       </c>
       <c r="H110">
-        <v>0.0625</v>
+        <v>0.616666666666667</v>
       </c>
       <c r="I110">
-        <v>299.25</v>
+        <v>99.8333333333333</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3121,32 +3111,30 @@
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E111">
-        <v>70</v>
+        <v>117.5</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>2.75</v>
       </c>
       <c r="G111">
-        <v>70</v>
+        <v>325</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
-      <c r="C112" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="C112" s="1"/>
       <c r="D112" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E112">
         <v>115</v>
@@ -3158,33 +3146,35 @@
         <v>345</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="I112">
-        <v>345</v>
+        <v>138</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
+      <c r="C113" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D113" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E113">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="F113">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="G113">
-        <v>575</v>
+        <v>219</v>
       </c>
       <c r="H113">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>546.25</v>
+        <v>184.5</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -3192,138 +3182,335 @@
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E114">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G114">
-        <v>170</v>
+        <v>360</v>
       </c>
       <c r="H114">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>127.5</v>
+        <v>360</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="1"/>
+      <c r="D115" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E115">
+        <v>91</v>
+      </c>
+      <c r="F115">
+        <v>3.7</v>
+      </c>
+      <c r="G115">
+        <v>332.5</v>
+      </c>
+      <c r="H115">
+        <v>0.1</v>
+      </c>
+      <c r="I115">
+        <v>299.25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E116">
+        <v>85</v>
+      </c>
+      <c r="F116">
+        <v>3</v>
+      </c>
+      <c r="G116">
+        <v>255</v>
+      </c>
+      <c r="H116">
+        <v>0.6</v>
+      </c>
+      <c r="I116">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E117">
+        <v>65</v>
+      </c>
+      <c r="F117">
+        <v>7.25</v>
+      </c>
+      <c r="G117">
+        <v>467.5</v>
+      </c>
+      <c r="H117">
+        <v>0.15</v>
+      </c>
+      <c r="I117">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E118">
+        <v>57.5</v>
+      </c>
+      <c r="F118">
+        <v>3.25</v>
+      </c>
+      <c r="G118">
+        <v>195</v>
+      </c>
+      <c r="H118">
+        <v>0.0625</v>
+      </c>
+      <c r="I118">
+        <v>299.25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E119">
+        <v>70</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>70</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E120">
+        <v>115</v>
+      </c>
+      <c r="F120">
+        <v>3</v>
+      </c>
+      <c r="G120">
+        <v>345</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E121">
+        <v>115</v>
+      </c>
+      <c r="F121">
+        <v>5</v>
+      </c>
+      <c r="G121">
+        <v>575</v>
+      </c>
+      <c r="H121">
+        <v>0.05</v>
+      </c>
+      <c r="I121">
+        <v>546.25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E122">
+        <v>85</v>
+      </c>
+      <c r="F122">
+        <v>2</v>
+      </c>
+      <c r="G122">
+        <v>170</v>
+      </c>
+      <c r="H122">
+        <v>0.25</v>
+      </c>
+      <c r="I122">
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E115">
+      <c r="D123" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E123">
         <v>65</v>
       </c>
-      <c r="F115">
+      <c r="F123">
         <v>3.25</v>
       </c>
-      <c r="G115">
+      <c r="G123">
         <v>211.25</v>
       </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115">
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
         <v>211.25</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
-      <c r="A116" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B116" s="1" t="s">
+    <row r="124" spans="1:9">
+      <c r="A124" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D124" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E116">
+      <c r="E124">
         <v>35</v>
       </c>
-      <c r="F116">
+      <c r="F124">
         <v>5.75</v>
       </c>
-      <c r="G116">
+      <c r="G124">
         <v>201.25</v>
       </c>
-      <c r="H116">
+      <c r="H124">
         <v>1</v>
       </c>
-      <c r="I116">
+      <c r="I124">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="A3:A22"/>
-    <mergeCell ref="A71:A83"/>
-    <mergeCell ref="A109:A115"/>
-    <mergeCell ref="A85:A91"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A23:A53"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A92:A108"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B75"/>
-    <mergeCell ref="B9:B22"/>
-    <mergeCell ref="B76:B83"/>
-    <mergeCell ref="B110:B115"/>
-    <mergeCell ref="B97:B108"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B23:B30"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B31:B53"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="C41:C48"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C56:C57"/>
+  <mergeCells count="59">
+    <mergeCell ref="A3:A25"/>
+    <mergeCell ref="A117:A123"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A91:A97"/>
+    <mergeCell ref="A60:A69"/>
+    <mergeCell ref="A77:A89"/>
+    <mergeCell ref="A26:A57"/>
+    <mergeCell ref="A98:A116"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="B35:B57"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="B103:B116"/>
+    <mergeCell ref="B10:B25"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B82:B89"/>
+    <mergeCell ref="B118:B123"/>
+    <mergeCell ref="B26:B34"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="C44:C51"/>
+    <mergeCell ref="C52:C57"/>
     <mergeCell ref="C58:C59"/>
     <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="C73:C74"/>
     <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="C99:C102"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="C112:C114"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C105:C108"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="C113:C116"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="C120:C122"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
